--- a/Income/RTX_inc.xlsx
+++ b/Income/RTX_inc.xlsx
@@ -2285,16 +2285,16 @@
         <v>0.1736</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2063</v>
+        <v>0.1804</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2323</v>
+        <v>0.2128</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.2548</v>
+        <v>0.2417</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.2513</v>
+        <v>0.2371</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1946</v>
@@ -2412,16 +2412,16 @@
         <v>-0.0297</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-0.0297</v>
+        <v>-0.0385</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-0.0155</v>
+        <v>-0.0205</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0688</v>
+        <v>0.0921</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0811</v>
+        <v>0.1084</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0401</v>
@@ -2539,16 +2539,16 @@
         <v>-0.0398</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.0146</v>
+        <v>-0.0542</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0001</v>
+        <v>-0.0377</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0843</v>
+        <v>0.0726</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0984</v>
+        <v>0.0916</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0141</v>
@@ -2666,16 +2666,16 @@
         <v>-0.0554</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-0.0377</v>
+        <v>-0.0489</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-0.0257</v>
+        <v>-0.0339</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.0679</v>
+        <v>0.0908</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.0913</v>
+        <v>0.1221</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.186</v>
@@ -2793,16 +2793,16 @@
         <v>0.0258</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.0436</v>
+        <v>0.0282</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0.0463</v>
+        <v>0.0307</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.0705</v>
+        <v>0.0621</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.0834</v>
+        <v>0.0794</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0.0375</v>
@@ -4268,16 +4268,16 @@
         <v>0.0968</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.1146</v>
+        <v>0.1079</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.1358</v>
+        <v>0.1354</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.1593</v>
+        <v>0.1669</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.1602</v>
+        <v>0.1681</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.1189</v>
@@ -4395,16 +4395,16 @@
         <v>0.0568</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.0758</v>
+        <v>0.07</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>0.082</v>
+        <v>0.0778</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>0.1064</v>
+        <v>0.1102</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.12</v>
+        <v>0.1284</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0.1043</v>
